--- a/biology/Microbiologie/Theseobacterales/Theseobacterales.xlsx
+++ b/biology/Microbiologie/Theseobacterales/Theseobacterales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Candidatus Theseobacterales" forment un ordre de bactéries du phylum candidat Auribacterota du règne des Bacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est proposé en 2022 par T. J. Williams sous le nom de "candidatus Theseobacterales" pour contenir les bactéries non cultivables du genre "candidatus Theseobacter exili" identifiées dans les profondeurs d'une mine d'or et connues depuis la publication de Momper sous le nom de "MAG SURF_26"[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé en 2022 par T. J. Williams sous le nom de "candidatus Theseobacterales" pour contenir les bactéries non cultivables du genre "candidatus Theseobacter exili" identifiées dans les profondeurs d'une mine d'or et connues depuis la publication de Momper sous le nom de "MAG SURF_26",.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom de candidatus Theseobacterales" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct[3].
-Étymologie
-L'étymologie du nom de l'ordre Theseobacterales est la suivante : The.se.o.bac.tera’les. N.L. fem. pl. n. Theseobacterales, l'ordre des Theseobacter[3],[4].
-Liste des familles
-Selon la base de nomenclature LPSN  (09/08/2023)[5], cet ordre ne contient qu'une famille candidate :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de candidatus Theseobacterales" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Theseobacterales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Theseobacterales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de l'ordre Theseobacterales est la suivante : The.se.o.bac.tera’les. N.L. fem. pl. n. Theseobacterales, l'ordre des Theseobacter,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Theseobacterales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Theseobacterales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de nomenclature LPSN  (09/08/2023), cet ordre ne contient qu'une famille candidate :
 "Candidatus Theseobacteraceae" Williams et al. 2022 nom préféré (nom non correct)</t>
         </is>
       </c>
